--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Conservas.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Conservas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Milho Verde Em Conserva Quero 170g</t>
+          <t>Fiambre Bordon 300 Gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed06e406-8ab9-481c-a165-2fe1b4a57b4e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9994eebe-16cb-470b-b238-6b8b17ee1bc2.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7899567245695</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Milho Verde Predilecta Lata 170g</t>
+          <t>Pate De Atum Coqueiro 170gr Trad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d0295ef-3e78-4622-8864-2934249b172c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19d68591-9053-4291-b609-8f27c59d7aa9.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896009301193</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sardinha Coqueiro Em Óleo 125g</t>
+          <t>Pate Atum Coqueiro 170gr C/azeiton Verde</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d0b7d74-7805-405d-bafe-d03bb6338819.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24cb728a-7305-4122-8598-72711446d883.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896009301193</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa Ralado Ao Natural Lata 170g</t>
+          <t>Sardinha Gomes Da Costa 125g C/oleo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a0760da-a02b-47b5-9d1c-5629ebdb651f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3420eac-57d4-4e57-90dc-093a122638c6.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891167021013</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa Ralado Em Óleo Lata 170g</t>
+          <t>Atum Gomes Da Costa 170g Pedaços Em Oleo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53513e05-ca36-466b-97ef-f3ba37fe652e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/634431d7-8b23-423d-9c66-e128bddb54e4.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891167011748</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Sem Caroço Sachê 150g</t>
+          <t>Pate De Atum Coqueiro 170g Toque Pimenta</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d93acaef-0a71-4f2e-b985-fa8ace0db33b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2169e36b-c027-472a-bc27-9176e2cfcb44.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896009301179</t>
         </is>
       </c>
     </row>
@@ -623,7 +658,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atum Coqueiro Ralado Ao Óleo Lata 170g</t>
+          <t>Atum Ralado Coqueiro 170gr Ao Natural</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -633,7 +668,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34614452-0edb-461b-bae1-b0b946df5be2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c82a9c6-a663-4c7e-ae38-a9ceeae07592.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896009301124</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Fatiada Sachê 150g</t>
+          <t>Atum Gomes Da Costa Sólido Em Óleo Lata 170g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/704d2ee6-e819-4d4a-9890-bbea8837bd49.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e0c5be5-8b10-4687-86d0-34b43812d726.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891167011748</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Milho Em Conserva Predilecta Sch 170gr</t>
+          <t>Atum Gomes Da Costa Ralado Em Óleo Lata 170g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb8a61fe-0913-4516-af45-6c332c5649a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53513e05-ca36-466b-97ef-f3ba37fe652e.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891167011748</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atum Ralado Coqueiro 170gr Ao Natural</t>
+          <t>Atum Gomes Da Costa Sólido Ao Natural Lata 170g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c82a9c6-a663-4c7e-ae38-a9ceeae07592.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15f8d94f-0e0e-4451-81b8-7ed4da976b08.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891167011755</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Champignon Aica Fatiados 100g</t>
+          <t>Atum Gomes Da Costa Ralado Ao Natural Lata 170g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/832677bf-b45f-4c83-ae43-7eb5910b0558.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a0760da-a02b-47b5-9d1c-5629ebdb651f.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891167011748</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa Sólido Ao Natural Lata 170g</t>
+          <t>Sardinha Gomes Da Costa 125g M.tomate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15f8d94f-0e0e-4451-81b8-7ed4da976b08.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4140b1cd-77f0-4d94-90e6-eb8cf85595a2.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891167022034</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ervilha Quero Lt 170 Gr</t>
+          <t>Patê De Atum Gomes Da Costa Trad. 150g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f52fcf36-95e0-4dc0-8163-a354c677ccba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b143e53a-dbdc-4286-b9ba-edbf371fb7f6.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891167831667</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sardinha Gomes Da Costa 125g C/oleo</t>
+          <t>Atum Solido Coqueiro 170gr Em Oleo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3420eac-57d4-4e57-90dc-093a122638c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a829b4c9-a5b1-4fe3-8bb3-7a45f58b96d7.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896009301131</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sardinha Coqueiro 125gr Tomate Temperado</t>
+          <t>Atum Coqueiro Ralado Ao Óleo Lata 170g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/175d8b39-ee73-4777-84bb-59643ab5124d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34614452-0edb-461b-bae1-b0b946df5be2.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896009301124</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa Sólido Em Óleo Lata 170g</t>
+          <t>Atum Coqueiro 170g Ped Natural</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e0c5be5-8b10-4687-86d0-34b43812d726.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec5df773-e5d1-4ac3-9e81-82215bf7c43b.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896009301148</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Milho Verde Knorr Lt 170g</t>
+          <t>Azeitona Rivoli 200gr Doy Pac C/pimentao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03fdcb18-f631-4d4c-a4c9-7e396b3eb457.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dd9aa76-904c-46b8-9c4e-593cce8b4fd2.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896183001063</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Seleta De Legumes Quero Lt 170 Gr</t>
+          <t>Azeitona Verde Rivoli Sachê 200g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f127df5-d123-47d5-a009-45a566480a71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4b3eca0-a962-44c7-a0b8-a461485a3821.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896183001438</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Atum Solido Coqueiro 170gr Em Oleo</t>
+          <t>Pepinos Cepera 300gr</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a829b4c9-a5b1-4fe3-8bb3-7a45f58b96d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d0d61e4-04d3-4339-bd86-b043d1a35f9f.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896025800267</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Atum Ralado Em Oleo Pescador 140g</t>
+          <t>Pickles Misto Cepera 200gr</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c3f10c2-5ae1-4549-a3dd-0e52abba69ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65b18c36-e958-4c79-96ad-41d3ea598b0d.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896025800274</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa 170g Pedaços Em Oleo</t>
+          <t>Feijoada Bordon 830gr</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/634431d7-8b23-423d-9c66-e128bddb54e4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07ebbaa4-5b4d-4f66-8489-1e0910ac1781.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896031224583</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Milho Verde Quero Sch 170gr</t>
+          <t>Atum Gomes Da Costa Ralado Ao Molho De Tomate Lata 170g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3377f2e-0150-48f5-9560-1cbd29730e53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44927ba9-1749-4d5e-99a8-9886b25b6a57.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891167011953</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Grao De Bico Quero Lt 170gr</t>
+          <t>Atum Gomes Da Costa Defumado Sólido Em Óleo Lata 170g</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 14,69</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebff54db-1039-4c46-a8c0-03a659969d1f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69ffaee5-2be5-4814-a9fe-471be67969a9.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891167011748</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sardinha Em Óleo Comest Pescador 125 Gr</t>
+          <t>Fiambre Kitut 320g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 9,39</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/109cc1bd-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db34ad89-0390-4c17-b9f1-c03b41ea5088.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896031203359</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli 100gr Doy Pack</t>
+          <t>Peito De Frango Desf Cozido Vapza 400g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05d673d1-5c2e-4199-ada4-4223d2f0df3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/863fa0d1-6710-4ae9-8626-02a48d46e45b.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7897122600910</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ervilha Predilecta Lt 170gr</t>
+          <t>Carne Seca Desfiada Vapza 400g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 63,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cacaaa48-07cb-495e-8285-4cb17309cc6f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc329606-7d7e-4c2a-9899-6e27995bc940.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7897122601252</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Atum Coqueiro 170g Ped Natural</t>
+          <t>Azeitona Verde Rivoli 100gr Doy Pack</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec5df773-e5d1-4ac3-9e81-82215bf7c43b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05d673d1-5c2e-4199-ada4-4223d2f0df3d.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896183003821</t>
         </is>
       </c>
     </row>
@@ -1203,6 +1343,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f005cfe-c437-486b-a35b-2a0c987b2cf5.jpg</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896009301100</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ervilha E Milho Quero Lt 170 Gr</t>
+          <t>Palmito Cananeia Vd 300g Pupunha Int</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3b6ed8e-7446-4acd-9794-4086c072a58b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae16d5b0-f14b-4ae9-915b-401f3b8551e6.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898921424271</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Champignon Aica Inteiros 100g</t>
+          <t>Palmito Cananeia Vd 300g Pupunha Pic</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8f44631-12c9-4e70-a4ab-500f06be4b76.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c70621ba-0538-4a06-aa22-92ffaf0fd590.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898921424271</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Milho Bonduelle Lt 170g</t>
+          <t>Palmito Cananeia Vd 300g Rodela</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcb3527b-c100-4dd3-b71b-6d9f78fdcc75.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/157bc64f-fe23-4afa-afed-3caaae116e84.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7898921424288</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pate De Atum Coqueiro 170gr Trad</t>
+          <t>Canjica Cozida A Vapor Vapza 500g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19d68591-9053-4291-b609-8f27c59d7aa9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6ee54a1-4294-44a8-9cdd-aefc9bea8cbb.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7897122600521</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ervilha Quero Sch 170gr</t>
+          <t>Azetona Rivoli 500g Verde Sache</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad1c4179-530d-4909-9937-a2dfa4121b66.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02d6c8aa-5b8a-4754-938d-4e16e4bce043.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896183001438</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pate Atum Coqueiro 170gr C/azeiton Verde</t>
+          <t>Champignon Aica Fatiados 100g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24cb728a-7305-4122-8598-72711446d883.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/832677bf-b45f-4c83-ae43-7eb5910b0558.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898000050063</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Sem Caroço Vidro 160g</t>
+          <t>Champignon Aica Inteiros 100g</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa4832cf-fccb-4e26-b991-2f233e3209b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8f44631-12c9-4e70-a4ab-500f06be4b76.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898000050124</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Fatiada Vidro 180g</t>
+          <t>Milho Verde Knorr Lt 170g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f2b3dcd-7f68-4660-8e16-4595843a08ab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03fdcb18-f631-4d4c-a4c9-7e396b3eb457.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7891150058903</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Milho Verde Em Conserva Ole Vidro 170g</t>
+          <t>Milho Verde Em Conserva Quero 170g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c61d368-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed06e406-8ab9-481c-a165-2fe1b4a57b4e.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891032013259</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa Defumado Sólido Em Óleo Lata 170g</t>
+          <t>Ervilha Quero Lt 170 Gr</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 14,69</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69ffaee5-2be5-4814-a9fe-471be67969a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f52fcf36-95e0-4dc0-8163-a354c677ccba.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896102500493</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Milho Bonduelle 200g Suave</t>
+          <t>Seleta De Legumes Quero Lt 170 Gr</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff6c8fed-e87d-4041-9ddd-8f31a12e9833.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f127df5-d123-47d5-a009-45a566480a71.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896102500530</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Atum Solido Coqueiro 170g Natural</t>
+          <t>Ervilha E Milho Quero Lt 170 Gr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b2c86fb-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3b6ed8e-7446-4acd-9794-4086c072a58b.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896102500448</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1746,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Seleta De Legumes Quero 170g Sache</t>
+          <t>Ervilha E Cenoura Quero Lt 170 Gr</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1551,7 +1756,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ec64327-4b1b-4f5d-8cfc-d6cac488d172.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbdf470f-904d-4e39-a387-86d04f63770b.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896102500622</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ervilha E Cenoura Quero Lt 170 Gr</t>
+          <t>Milho Em Conserva Predilecta Sch 170gr</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbdf470f-904d-4e39-a387-86d04f63770b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb8a61fe-0913-4516-af45-6c332c5649a7.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896292341098</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Palmito Unieco Vidro 300g Pupunha Rodela</t>
+          <t>Ervilha Quero Sch 170gr</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0f48311-aa9e-4a0d-b6ed-9f7a620a65f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad1c4179-530d-4909-9937-a2dfa4121b66.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896102500837</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Palmito Pupunha Oliveira Vidro 300g Picado</t>
+          <t>Milho Verde Quero Sch 170gr</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fee755b7-7c5c-4791-8981-274a3a0b263b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3377f2e-0150-48f5-9560-1cbd29730e53.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896102500608</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Azeitona Preta Rivoli Premium Azapa Com Caroço Vidro 200g</t>
+          <t>Grao De Bico Quero Lt 170gr</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2dde2eb2-3bee-4980-bd5d-9db122f412f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebff54db-1039-4c46-a8c0-03a659969d1f.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896102500820</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1906,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pate De Atum Coqueiro 170g Toque Pimenta</t>
+          <t>Atum Solido Coqueiro 170g Natural</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1686,7 +1916,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2169e36b-c027-472a-bc27-9176e2cfcb44.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b2c86fb-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896009301148</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Sachê 200g</t>
+          <t>Milho Verde Em Conserva Ole Vidro 170g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4b3eca0-a962-44c7-a0b8-a461485a3821.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c61d368-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891032013259</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Palmito Cananeia Vd 300g Pupunha Pic</t>
+          <t>Salsicha Viena Bordon 180gr Drenado</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c70621ba-0538-4a06-aa22-92ffaf0fd590.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f45be94c-8469-44f9-87ab-8c98a118dffe.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896031232083</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Recheada Com Pimentão Vidro 200g</t>
+          <t>Sardinha Em Óleo Comest Pescador 125 Gr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,79</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bdd1958-e51f-4cca-851a-9f9cf0c09b8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/109cc1bd-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896114901738</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Palmito Bonduelle 325g Pupunha</t>
+          <t>Seleta De Legumes Ole Vd 200gr</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bae671b4-382b-460c-99a2-50e7bb7aa55e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d91d47a-fa3b-4e58-bc92-430ce1c4015e.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891032012658</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Palmito Bonduelle 520g Pupunha</t>
+          <t>Atum Ralado Em Oleo Pescador 140g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30ac0ba0-4707-4185-8e4c-13eb369b8c92.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c3f10c2-5ae1-4549-a3dd-0e52abba69ba.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896114990190</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Seleta De Legumes Ole Vd 200gr</t>
+          <t>Palmito Pupunha Oliveira Vidro 300g Fatiado</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d91d47a-fa3b-4e58-bc92-430ce1c4015e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ff33dd8-b366-4db7-aafe-87d287c29bb3.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896202892153</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Palmito Bonduelle 520g Pupunha Picado</t>
+          <t>Palmito Pupunha Oliveira Vidro 300g Picado</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02695c0f-de2d-4bc1-bf69-14eaeedc543a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fee755b7-7c5c-4791-8981-274a3a0b263b.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896202892153</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Azeitona Verde Rivoli Com Caroço Vidro 500g</t>
+          <t>Feijao Carioca Kicaldo 500g Organico</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a72b4b0-d215-414a-af48-3d03f9c908c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fb6e3b3-3280-4010-bc42-f017ac9f0e4b.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896116902016</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Palmito Cananeia Vd 300g Rodela</t>
+          <t>Ervilha E Milho Quero 170g Sache</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/157bc64f-fe23-4afa-afed-3caaae116e84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a18a7ec-7915-4620-985e-304f000e06fc.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896102500851</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Atum Gomes Da Costa Ralado Ao Molho De Tomate Lata 170g</t>
+          <t>Seleta De Legumes Quero 170g Sache</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44927ba9-1749-4d5e-99a8-9886b25b6a57.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ec64327-4b1b-4f5d-8cfc-d6cac488d172.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896102500868</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Palmito Unieco Vidro 300g Pupunha Picado</t>
+          <t>Champignon Aica Inteiro 80g Com Vinagre Maça</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a41155b-4f15-497f-8618-62eb8455d8a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30c8c5da-441e-47c0-b9a2-635051d91c06.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898000050339</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Azeitona Rivoli 200gr Doy Pac C/pimentao</t>
+          <t>Moedor Br Spice 50g Pimenta Do Reino</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 20,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dd9aa76-904c-46b8-9c4e-593cce8b4fd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28967608-ff97-4c00-a7aa-5e50fc66416f.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7898946900569</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2322,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Salsicha Viena Bordon 180gr Drenado</t>
+          <t>Azetona Verde Fatiada Raiolita Doypack 150g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2037,7 +2332,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f45be94c-8469-44f9-87ab-8c98a118dffe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5552cf92-b2b1-44f3-988e-d584605932ff.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896237902285</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ervilha E Milho Quero 170g Sache</t>
+          <t>Azetona Verde Sem Caroço Raiolita Doypack 150g</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a18a7ec-7915-4620-985e-304f000e06fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13cc846d-aafc-4c10-ae09-da0c684fde7e.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896237902285</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Palmito Cananeia Vd 300g Pupunha Int</t>
+          <t>Azeitona Verde Recheada/pimentao Raiola 195g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae16d5b0-f14b-4ae9-915b-401f3b8551e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7945342b-f404-44fc-b69e-a15f10ed3b80.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896237900199</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Champignon Aica Inteiro 80g Com Vinagre Maça</t>
+          <t>Azeitona Preta Fat Raiola Doypc 150g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30c8c5da-441e-47c0-b9a2-635051d91c06.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8e7404f-48d2-4096-9a92-b681a004e871.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896237903244</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Palmito Pupunha Oliveira Vidro 300g Fatiado</t>
+          <t>Azeitona Verde Fatiada Raiola Copo 100g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ff33dd8-b366-4db7-aafe-87d287c29bb3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72956970-00ad-4be5-90ed-51a38d997647.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896237901264</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2482,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Alcaparra Em Conserva Cepêra Vidro 65g</t>
+          <t>Azeitona Verde Gordal Raiola 200g</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2172,7 +2492,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9a04b25-21e9-4c2e-89c0-d26ef3221a53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a06c82eb-9764-4804-9e78-edd33a76e7b4.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896237900090</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Feijoada Bordon 830gr</t>
+          <t>Azeitona Verde Lolita Doypc 80g</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07ebbaa4-5b4d-4f66-8489-1e0910ac1781.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f968358-b5c4-4da7-93c3-63974c417d8e.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896237903121</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Canjica Cozida A Vapor Vapza 500g</t>
+          <t>Palmito Unieco Vidro 300g Jussara Inteiro</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6ee54a1-4294-44a8-9cdd-aefc9bea8cbb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d6e1b1e-8e98-4838-8ba4-4fbd9a6597ad.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7898623450189</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Azeitona La Pastina Verde Fatiada 320g</t>
+          <t>Palmito Unieco Vidro 300g Pupunha Inteiro</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33f2455f-5558-47b4-85c1-1a3d3fc43526.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7898623450127</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Azeitona Preta Rivoli Com Caroço Sachê 180g</t>
+          <t>Palmito Unieco Vidro 300g Pupunha Picado</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0671086-03ac-49eb-9125-3b91dc6cbbd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a41155b-4f15-497f-8618-62eb8455d8a9.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7898623450127</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Feijao Carioca Kicaldo 500g Organico</t>
+          <t>Palmito Unieco Vidro 300g Pupunha Rodela</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fb6e3b3-3280-4010-bc42-f017ac9f0e4b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0f48311-aa9e-4a0d-b6ed-9f7a620a65f7.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7898623450158</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Feijoada À Brasileira Anglo 430g</t>
+          <t>Ervilha Partida Kicaldo 400g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a06dfe60-dfdd-47bb-934b-12db5ae73712.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896116909992</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Azeitona Verde Fatiada Raiola Copo 100g</t>
+          <t>Grao De Bico Kicaldo 400g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72956970-00ad-4be5-90ed-51a38d997647.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7a00c0b-eb67-4fda-a2f5-d59303401b1c.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896006750734</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Palmito De Açai Brasil Palmitos 300g Int</t>
+          <t>Lentilha Seca Kicaldo 400g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cd45c3c-e6ab-47f0-a690-030357fdc3a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba3ee612-621f-449d-8a0d-d31021e536af.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896024210180</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fiambre Kitut 320g</t>
+          <t>Palmito Torre De Babel 300g Pupunha Picado</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 9,39</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db34ad89-0390-4c17-b9f1-c03b41ea5088.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7890204270926</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Azeitona Preta Fat Raiola Doypc 150g</t>
+          <t>Palmito Torre De Babel 300g Pupunha Rodela</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8e7404f-48d2-4096-9a92-b681a004e871.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7890204270926</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fiambre Bordon 300 Gr</t>
+          <t>Dueto Cepêra Lata 170g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9994eebe-16cb-470b-b238-6b8b17ee1bc2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896025805392</t>
         </is>
       </c>
     </row>
@@ -2486,773 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lentilha Seca Kicaldo 400g</t>
+          <t>Seleta De Legumes Cepêra Lata 170g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba3ee612-621f-449d-8a0d-d31021e536af.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Azeitona Verde Gallo 150g Fatiada</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d57d10ad-c571-4450-a96c-98fcea6e21bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Azeitona Verde Rivoli Com Caroço Vidro 200g</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af23d604-46d0-4342-97c0-3ec2dc71fb34.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Azeitona Verde Sem Caroço Lolita Doypack 80g</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86607c89-70f4-4d94-b10b-a0051c2cc5f7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Palmito Pupunha Oliveira 300g Vidro Tolete</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/927d8c39-8d43-43b5-8432-2412ae9c8962.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Patê De Atum Gomes Da Costa Trad. 150g</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b143e53a-dbdc-4286-b9ba-edbf371fb7f6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Pepinos Cepera 300gr</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d0d61e4-04d3-4339-bd86-b043d1a35f9f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Azetona Verde Sem Caroço Raiolita Doypack 150g</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13cc846d-aafc-4c10-ae09-da0c684fde7e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Azetona Rivoli 500g Verde Sache</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02d6c8aa-5b8a-4754-938d-4e16e4bce043.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Carne Seca Desfiada Vapza 400g</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>R$ 63,99</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc329606-7d7e-4c2a-9899-6e27995bc940.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Azeitona Verde Recheada/pimentao Raiola 195g</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7945342b-f404-44fc-b69e-a15f10ed3b80.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Azeitona Preta Azapa Raiola 200g</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d78a3440-535e-42e8-80b6-ad6e1cb8d5e6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Azetona Verde Fatiada Raiolita Doypack 150g</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5552cf92-b2b1-44f3-988e-d584605932ff.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Azeitona Verde Gordal Raiola 200g</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a06c82eb-9764-4804-9e78-edd33a76e7b4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Azeitona Verde Lolita Doypc 80g</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f968358-b5c4-4da7-93c3-63974c417d8e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Ervilha Partida Kicaldo 400g</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Pickles Misto Cepera 200gr</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65b18c36-e958-4c79-96ad-41d3ea598b0d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Moedor Br Spice 50g Pimenta Do Reino</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 20,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28967608-ff97-4c00-a7aa-5e50fc66416f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Palmito Unieco Vidro 300g Pupunha Inteiro</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Grao De Bico Kicaldo 400g</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7a00c0b-eb67-4fda-a2f5-d59303401b1c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Alcaparra Em Conserva Cananeia Vidro 65g</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58595b47-0b8d-4d81-9050-cf66f512b51e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Palmito Unieco Vidro 300g Açai Inteiro</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Moedor Br Spice 100g Sal Do Himalaia</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c2c2e10-c359-461b-a06b-cfe5e87f534a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Palmito Unieco Vidro 300g Jussara Inteiro</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d6e1b1e-8e98-4838-8ba4-4fbd9a6597ad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Seleta De Legumes Cepêra Lata 170g</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Dueto Cepêra Lata 170g</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Peito De Frango Desf Cozido Vapza 400g</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/863fa0d1-6710-4ae9-8626-02a48d46e45b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Palmito Torre De Babel 300g Pupunha Picado</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Palmito Torre De Babel 300g Pupunha Rodela</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896025805231</t>
         </is>
       </c>
     </row>
